--- a/templates/Income_Statement_Template.xlsx
+++ b/templates/Income_Statement_Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XA XUI - CVN\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52ebbb93f357813a/10_Works/GitHub/Planning_Agent_NDD/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F6D2036-2868-4D3C-A1E1-18027702535B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{9F6D2036-2868-4D3C-A1E1-18027702535B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0365213B-DC60-48BF-A78F-32C5ED187777}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2D3A2584-4639-4827-A3EE-61AE74652593}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2D3A2584-4639-4827-A3EE-61AE74652593}"/>
   </bookViews>
   <sheets>
     <sheet name="P&amp;L" sheetId="1" r:id="rId1"/>
@@ -491,34 +491,7 @@
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="2" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="43" fontId="12" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -526,12 +499,6 @@
     </xf>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="2" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="2" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -793,6 +760,39 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="12" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="2" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="2" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="2" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="43" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -51445,34 +51445,34 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B7" sqref="B7"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
-      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6:P50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.453125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="28.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.453125" style="125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.453125" style="126" customWidth="1"/>
-    <col min="5" max="5" width="19.54296875" style="126" customWidth="1"/>
-    <col min="6" max="6" width="20.54296875" style="126" customWidth="1"/>
-    <col min="7" max="7" width="18.453125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="14.453125" style="126" customWidth="1"/>
-    <col min="9" max="9" width="17.54296875" style="126" customWidth="1"/>
-    <col min="10" max="10" width="20.54296875" style="126" customWidth="1"/>
-    <col min="11" max="11" width="8.54296875" style="127" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.453125" style="7" customWidth="1"/>
-    <col min="13" max="13" width="21.453125" style="18" customWidth="1"/>
-    <col min="14" max="14" width="11.54296875" style="18" customWidth="1"/>
-    <col min="15" max="15" width="3.453125" style="18" customWidth="1"/>
+    <col min="1" max="1" width="1.42578125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="114" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="115" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" style="115" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" style="115" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="115" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" style="115" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" style="115" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" style="116" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.42578125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="21.42578125" style="18" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" style="18" customWidth="1"/>
+    <col min="15" max="15" width="3.42578125" style="18" customWidth="1"/>
     <col min="16" max="16" width="15" style="18" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.453125" style="18" customWidth="1"/>
-    <col min="18" max="18" width="2.453125" style="7" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" style="18" customWidth="1"/>
+    <col min="18" max="18" width="2.42578125" style="7" customWidth="1"/>
     <col min="19" max="20" width="0" style="7" hidden="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.453125" style="7" hidden="1"/>
+    <col min="21" max="16384" width="9.42578125" style="7" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="14" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -51500,7 +51500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:17" ht="14" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="11"/>
       <c r="C2" s="12"/>
       <c r="D2" s="13"/>
@@ -51521,1489 +51521,1018 @@
       <c r="P2" s="19"/>
       <c r="Q2" s="10"/>
     </row>
-    <row r="3" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="20" t="s">
+    <row r="3" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="119" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="23"/>
-      <c r="M3" s="24" t="s">
+      <c r="K3" s="121"/>
+      <c r="M3" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="25" t="s">
+      <c r="N3" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="26"/>
-      <c r="P3" s="24" t="s">
+      <c r="O3" s="20"/>
+      <c r="P3" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="25" t="s">
+      <c r="Q3" s="117" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="27"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+    <row r="4" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="125"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
       <c r="G4" s="129"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="30" t="s">
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="32"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="33"/>
+      <c r="M4" s="123"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="123"/>
+      <c r="Q4" s="118"/>
     </row>
-    <row r="5" spans="2:17" ht="14" x14ac:dyDescent="0.3">
-      <c r="B5" s="34"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="40"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="45"/>
+    <row r="5" spans="2:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="29"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="34"/>
     </row>
-    <row r="6" spans="2:17" ht="14" x14ac:dyDescent="0.25">
-      <c r="B6" s="46" t="str">
+    <row r="6" spans="2:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="B6" s="35" t="str">
         <f>[1]FSs!D203</f>
         <v>▪ Revenue</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="48">
-        <v>11320490154</v>
-      </c>
-      <c r="E6" s="48">
-        <v>0</v>
-      </c>
-      <c r="F6" s="49">
-        <v>11320490154</v>
-      </c>
-      <c r="G6" s="50">
-        <v>7803418411</v>
-      </c>
-      <c r="H6" s="49">
-        <v>0</v>
-      </c>
-      <c r="I6" s="49">
-        <v>7803418411</v>
-      </c>
-      <c r="J6" s="51">
-        <f>F6-I6</f>
-        <v>3517071743</v>
-      </c>
-      <c r="K6" s="52">
-        <f>IF(I6&lt;&gt;0,J6/I6,"NA")</f>
-        <v>0.45070910692706156</v>
-      </c>
-      <c r="M6" s="53">
-        <v>7803418411</v>
-      </c>
-      <c r="N6" s="54">
-        <v>0</v>
-      </c>
-      <c r="O6" s="55"/>
-      <c r="P6" s="56">
-        <v>11320490154</v>
-      </c>
-      <c r="Q6" s="57">
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="41"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="46">
         <f>D6-P6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="46"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="52"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="57"/>
+    <row r="7" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="35"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="41"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="46"/>
     </row>
-    <row r="8" spans="2:17" ht="14" x14ac:dyDescent="0.25">
-      <c r="B8" s="62" t="str">
+    <row r="8" spans="2:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="B8" s="51" t="str">
         <f>[1]FSs!D205</f>
         <v>▪ Deductions</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="63">
-        <v>0</v>
-      </c>
-      <c r="E8" s="48">
-        <v>0</v>
-      </c>
-      <c r="F8" s="64">
-        <v>0</v>
-      </c>
-      <c r="G8" s="65">
-        <v>0</v>
-      </c>
-      <c r="H8" s="64">
-        <v>0</v>
-      </c>
-      <c r="I8" s="64">
-        <v>0</v>
-      </c>
-      <c r="J8" s="66">
-        <f>F8-I8</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="67" t="str">
-        <f>IF(I8&lt;&gt;0,J8/I8,"NA")</f>
-        <v>NA</v>
-      </c>
-      <c r="M8" s="68">
-        <v>0</v>
-      </c>
-      <c r="N8" s="54">
-        <v>0</v>
-      </c>
-      <c r="O8" s="55"/>
-      <c r="P8" s="69">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="57">
+      <c r="D8" s="52"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="56"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="58"/>
+      <c r="Q8" s="46">
         <f t="shared" ref="Q8:Q48" si="0">D8-P8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="70"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="67"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="72"/>
-      <c r="Q9" s="57"/>
+    <row r="9" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="59"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="56"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="46"/>
     </row>
-    <row r="10" spans="2:17" ht="14" x14ac:dyDescent="0.25">
-      <c r="B10" s="46" t="str">
+    <row r="10" spans="2:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="B10" s="35" t="str">
         <f>[1]FSs!D207</f>
         <v>▪ Net revenue</v>
       </c>
-      <c r="C10" s="47">
+      <c r="C10" s="36">
         <v>10</v>
       </c>
-      <c r="D10" s="73">
-        <v>11320490154</v>
-      </c>
-      <c r="E10" s="74">
-        <v>0</v>
-      </c>
-      <c r="F10" s="74">
-        <v>11320490154</v>
-      </c>
-      <c r="G10" s="75">
-        <v>7803418411</v>
-      </c>
-      <c r="H10" s="74">
-        <v>0</v>
-      </c>
-      <c r="I10" s="74">
-        <v>7803418411</v>
-      </c>
-      <c r="J10" s="51">
-        <f>F10-I10</f>
-        <v>3517071743</v>
-      </c>
-      <c r="K10" s="52">
-        <f>IF(I10&lt;&gt;0,J10/I10,"NA")</f>
-        <v>0.45070910692706156</v>
-      </c>
-      <c r="M10" s="76">
-        <v>7803418411</v>
-      </c>
-      <c r="N10" s="54">
-        <v>0</v>
-      </c>
-      <c r="O10" s="55"/>
-      <c r="P10" s="77">
-        <v>11320490154</v>
-      </c>
-      <c r="Q10" s="57">
+      <c r="D10" s="62"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="41"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="70"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="67"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="60"/>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="57"/>
+    <row r="11" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="59"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="56"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="71"/>
+      <c r="Q11" s="46"/>
     </row>
-    <row r="12" spans="2:17" ht="14" x14ac:dyDescent="0.25">
-      <c r="B12" s="70" t="str">
+    <row r="12" spans="2:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="B12" s="59" t="str">
         <f>[1]FSs!D209</f>
         <v>▪ Cost of sales</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="24">
         <v>11</v>
       </c>
-      <c r="D12" s="63">
-        <v>9418627544</v>
-      </c>
-      <c r="E12" s="63">
-        <v>0</v>
-      </c>
-      <c r="F12" s="64">
-        <v>9418627544</v>
-      </c>
-      <c r="G12" s="65">
-        <v>5387434959</v>
-      </c>
-      <c r="H12" s="64">
-        <v>0</v>
-      </c>
-      <c r="I12" s="64">
-        <v>5387434959</v>
-      </c>
-      <c r="J12" s="66">
-        <f>F12-I12</f>
-        <v>4031192585</v>
-      </c>
-      <c r="K12" s="67">
-        <f>IF(I12&lt;&gt;0,J12/I12,"NA")</f>
-        <v>0.74825823711628781</v>
-      </c>
-      <c r="M12" s="68">
-        <v>5387434959</v>
-      </c>
-      <c r="N12" s="54">
-        <v>0</v>
-      </c>
-      <c r="O12" s="55"/>
-      <c r="P12" s="69">
-        <v>9418627544</v>
-      </c>
-      <c r="Q12" s="57">
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="56"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="46">
         <f>D12-P12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="70"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="67"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="60"/>
-      <c r="P13" s="72"/>
-      <c r="Q13" s="57"/>
+    <row r="13" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="59"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="56"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="46"/>
     </row>
-    <row r="14" spans="2:17" ht="14" x14ac:dyDescent="0.25">
-      <c r="B14" s="46" t="str">
+    <row r="14" spans="2:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="B14" s="35" t="str">
         <f>[1]FSs!D211</f>
         <v>▪ Gross profit</v>
       </c>
-      <c r="C14" s="47">
+      <c r="C14" s="36">
         <v>20</v>
       </c>
-      <c r="D14" s="73">
-        <v>1901862610</v>
-      </c>
-      <c r="E14" s="73">
-        <v>0</v>
-      </c>
-      <c r="F14" s="74">
-        <v>1901862610</v>
-      </c>
-      <c r="G14" s="75">
-        <v>2415983452</v>
-      </c>
-      <c r="H14" s="74">
-        <v>0</v>
-      </c>
-      <c r="I14" s="74">
-        <v>2415983452</v>
-      </c>
-      <c r="J14" s="51">
-        <f>F14-I14</f>
-        <v>-514120842</v>
-      </c>
-      <c r="K14" s="52">
-        <f>IF(I14&lt;&gt;0,J14/I14,"NA")</f>
-        <v>-0.21279981929280201</v>
-      </c>
-      <c r="M14" s="76">
-        <v>2415983452</v>
-      </c>
-      <c r="N14" s="54">
-        <v>0</v>
-      </c>
-      <c r="O14" s="55"/>
-      <c r="P14" s="77">
-        <v>1901862610</v>
-      </c>
-      <c r="Q14" s="57">
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="41"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="46"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="52"/>
-      <c r="M15" s="76"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="60"/>
-      <c r="P15" s="77"/>
-      <c r="Q15" s="57"/>
+    <row r="15" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="35"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="41"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="46"/>
     </row>
-    <row r="16" spans="2:17" ht="14" x14ac:dyDescent="0.25">
-      <c r="B16" s="70" t="str">
+    <row r="16" spans="2:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="B16" s="59" t="str">
         <f>[1]FSs!D213</f>
         <v>▪ Financial incomes</v>
       </c>
-      <c r="C16" s="35">
+      <c r="C16" s="24">
         <v>21</v>
       </c>
-      <c r="D16" s="63">
-        <v>243386693</v>
-      </c>
-      <c r="E16" s="63">
-        <v>0</v>
-      </c>
-      <c r="F16" s="64">
-        <v>243386693</v>
-      </c>
-      <c r="G16" s="65">
-        <v>155096781</v>
-      </c>
-      <c r="H16" s="64">
-        <v>0</v>
-      </c>
-      <c r="I16" s="64">
-        <v>155096781</v>
-      </c>
-      <c r="J16" s="66">
-        <f>F16-I16</f>
-        <v>88289912</v>
-      </c>
-      <c r="K16" s="67">
-        <f>IF(I16&lt;&gt;0,J16/I16,"NA")</f>
-        <v>0.56925689515116373</v>
-      </c>
-      <c r="M16" s="68">
-        <v>155096781</v>
-      </c>
-      <c r="N16" s="54">
-        <v>0</v>
-      </c>
-      <c r="O16" s="55"/>
-      <c r="P16" s="69">
-        <v>243386693</v>
-      </c>
-      <c r="Q16" s="57">
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="56"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="58"/>
+      <c r="Q16" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="70"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="67"/>
-      <c r="M17" s="68"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="60"/>
-      <c r="P17" s="72"/>
-      <c r="Q17" s="57"/>
+    <row r="17" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="59"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="56"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="46"/>
     </row>
-    <row r="18" spans="2:17" ht="14" x14ac:dyDescent="0.25">
-      <c r="B18" s="70" t="str">
+    <row r="18" spans="2:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="B18" s="59" t="str">
         <f>[1]FSs!D215</f>
         <v>▪ Financial expenses</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="24">
         <v>22</v>
       </c>
-      <c r="D18" s="63">
-        <v>62044912</v>
-      </c>
-      <c r="E18" s="63">
-        <v>0</v>
-      </c>
-      <c r="F18" s="64">
-        <v>62044912</v>
-      </c>
-      <c r="G18" s="65">
-        <v>30855626</v>
-      </c>
-      <c r="H18" s="64">
-        <v>0</v>
-      </c>
-      <c r="I18" s="64">
-        <v>30855626</v>
-      </c>
-      <c r="J18" s="66">
-        <f>F18-I18</f>
-        <v>31189286</v>
-      </c>
-      <c r="K18" s="67">
-        <f>IF(I18&lt;&gt;0,J18/I18,"NA")</f>
-        <v>1.0108135871234634</v>
-      </c>
-      <c r="M18" s="68">
-        <v>30855626</v>
-      </c>
-      <c r="N18" s="54">
-        <v>0</v>
-      </c>
-      <c r="O18" s="55"/>
-      <c r="P18" s="69">
-        <v>62044912</v>
-      </c>
-      <c r="Q18" s="57">
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="56"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="58"/>
+      <c r="Q18" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="70"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="67"/>
-      <c r="M19" s="68"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="72"/>
-      <c r="Q19" s="57">
+    <row r="19" spans="2:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="59"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="56"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:17" s="90" customFormat="1" ht="14" x14ac:dyDescent="0.3">
-      <c r="B20" s="83" t="str">
+    <row r="20" spans="2:17" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B20" s="72" t="str">
         <f>[1]FSs!D217</f>
         <v xml:space="preserve">   In which: Interest expenses</v>
       </c>
-      <c r="C20" s="84">
+      <c r="C20" s="73">
         <v>23</v>
       </c>
-      <c r="D20" s="85"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="86">
-        <v>0</v>
-      </c>
-      <c r="G20" s="87"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="86">
-        <v>0</v>
-      </c>
-      <c r="J20" s="88">
-        <f>F20-I20</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="89" t="str">
-        <f>IF(I20&lt;&gt;0,J20/I20,"NA")</f>
-        <v>NA</v>
-      </c>
-      <c r="M20" s="91"/>
-      <c r="N20" s="92"/>
-      <c r="O20" s="93"/>
-      <c r="P20" s="94"/>
-      <c r="Q20" s="57"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="78"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="81"/>
+      <c r="O20" s="82"/>
+      <c r="P20" s="83"/>
+      <c r="Q20" s="46"/>
     </row>
-    <row r="21" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="70"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="67"/>
-      <c r="M21" s="68"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="60"/>
-      <c r="P21" s="72"/>
-      <c r="Q21" s="57"/>
+    <row r="21" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="59"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="56"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="46"/>
     </row>
-    <row r="22" spans="2:17" ht="14" x14ac:dyDescent="0.25">
-      <c r="B22" s="70" t="str">
+    <row r="22" spans="2:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="B22" s="59" t="str">
         <f>[1]FSs!D219</f>
         <v>▪ Selling expenses</v>
       </c>
-      <c r="C22" s="35">
+      <c r="C22" s="24">
         <v>25</v>
       </c>
-      <c r="D22" s="63">
-        <v>1923549624</v>
-      </c>
-      <c r="E22" s="63">
-        <v>0</v>
-      </c>
-      <c r="F22" s="64">
-        <v>1923549624</v>
-      </c>
-      <c r="G22" s="65">
-        <v>1661577807</v>
-      </c>
-      <c r="H22" s="64">
-        <v>0</v>
-      </c>
-      <c r="I22" s="64">
-        <v>1661577807</v>
-      </c>
-      <c r="J22" s="66">
-        <f>F22-I22</f>
-        <v>261971817</v>
-      </c>
-      <c r="K22" s="67">
-        <f>IF(I22&lt;&gt;0,J22/I22,"NA")</f>
-        <v>0.15766448967743105</v>
-      </c>
-      <c r="M22" s="68">
-        <v>1661577807</v>
-      </c>
-      <c r="N22" s="54">
-        <v>0</v>
-      </c>
-      <c r="O22" s="55"/>
-      <c r="P22" s="69">
-        <v>1923549624</v>
-      </c>
-      <c r="Q22" s="57">
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="56"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="58"/>
+      <c r="Q22" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="70"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="67"/>
-      <c r="M23" s="68"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="60"/>
-      <c r="P23" s="72"/>
-      <c r="Q23" s="57"/>
+    <row r="23" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="59"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="56"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="46"/>
     </row>
-    <row r="24" spans="2:17" ht="24" x14ac:dyDescent="0.25">
-      <c r="B24" s="70" t="str">
+    <row r="24" spans="2:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B24" s="59" t="str">
         <f>[1]FSs!D221</f>
         <v>▪ General &amp; administrative expenses</v>
       </c>
-      <c r="C24" s="35">
+      <c r="C24" s="24">
         <v>26</v>
       </c>
-      <c r="D24" s="63">
-        <v>1055067757</v>
-      </c>
-      <c r="E24" s="63">
-        <v>0</v>
-      </c>
-      <c r="F24" s="64">
-        <v>1055067757</v>
-      </c>
-      <c r="G24" s="65">
-        <v>696746922</v>
-      </c>
-      <c r="H24" s="64">
-        <v>0</v>
-      </c>
-      <c r="I24" s="64">
-        <v>696746922</v>
-      </c>
-      <c r="J24" s="66">
-        <f>F24-I24</f>
-        <v>358320835</v>
-      </c>
-      <c r="K24" s="67">
-        <f>IF(I24&lt;&gt;0,J24/I24,"NA")</f>
-        <v>0.51427688258951509</v>
-      </c>
-      <c r="M24" s="68">
-        <v>696746922</v>
-      </c>
-      <c r="N24" s="54">
-        <v>0</v>
-      </c>
-      <c r="O24" s="55"/>
-      <c r="P24" s="69">
-        <v>1055067757</v>
-      </c>
-      <c r="Q24" s="57">
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="56"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="58"/>
+      <c r="Q24" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="70"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="67"/>
-      <c r="M25" s="68"/>
-      <c r="N25" s="59"/>
-      <c r="O25" s="60"/>
-      <c r="P25" s="72"/>
-      <c r="Q25" s="57"/>
+    <row r="25" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="59"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="56"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="46"/>
     </row>
-    <row r="26" spans="2:17" ht="14" x14ac:dyDescent="0.25">
-      <c r="B26" s="46" t="str">
+    <row r="26" spans="2:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="B26" s="35" t="str">
         <f>[1]FSs!D223</f>
         <v>▪ Net operating (loss)/profit</v>
       </c>
-      <c r="C26" s="47">
+      <c r="C26" s="36">
         <v>30</v>
       </c>
-      <c r="D26" s="95">
-        <v>-895412990</v>
-      </c>
-      <c r="E26" s="95">
-        <v>0</v>
-      </c>
-      <c r="F26" s="95">
-        <v>-895412990</v>
-      </c>
-      <c r="G26" s="96">
-        <v>181899878</v>
-      </c>
-      <c r="H26" s="95">
-        <v>0</v>
-      </c>
-      <c r="I26" s="95">
-        <v>181899878</v>
-      </c>
-      <c r="J26" s="95">
-        <f t="shared" ref="D26:J26" si="1">SUM(J14,J16,-J18,-J22,-J24)</f>
-        <v>-1077312868</v>
-      </c>
-      <c r="K26" s="52">
-        <f>IF(I26&lt;&gt;0,J26/I26,"NA")</f>
-        <v>-5.9225595962191901</v>
-      </c>
-      <c r="M26" s="97">
-        <v>181899878</v>
-      </c>
-      <c r="N26" s="54">
-        <v>0</v>
-      </c>
-      <c r="O26" s="55"/>
-      <c r="P26" s="77">
-        <v>-895412990</v>
-      </c>
-      <c r="Q26" s="57">
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="41"/>
+      <c r="M26" s="86"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="66"/>
+      <c r="Q26" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="46"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="74"/>
-      <c r="J27" s="98"/>
-      <c r="K27" s="52"/>
-      <c r="M27" s="68"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="60"/>
-      <c r="P27" s="77"/>
-      <c r="Q27" s="57"/>
+    <row r="27" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="35"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="87"/>
+      <c r="K27" s="41"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="66"/>
+      <c r="Q27" s="46"/>
     </row>
-    <row r="28" spans="2:17" ht="14" x14ac:dyDescent="0.25">
-      <c r="B28" s="70" t="str">
+    <row r="28" spans="2:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="B28" s="59" t="str">
         <f>[1]FSs!D225</f>
         <v>▪ Other incomes</v>
       </c>
-      <c r="C28" s="35">
+      <c r="C28" s="24">
         <v>31</v>
       </c>
-      <c r="D28" s="63">
-        <v>20915431</v>
-      </c>
-      <c r="E28" s="63">
-        <v>0</v>
-      </c>
-      <c r="F28" s="64">
-        <v>20915431</v>
-      </c>
-      <c r="G28" s="65">
-        <v>4084968</v>
-      </c>
-      <c r="H28" s="64">
-        <v>0</v>
-      </c>
-      <c r="I28" s="64">
-        <v>4084968</v>
-      </c>
-      <c r="J28" s="66">
-        <f>F28-I28</f>
-        <v>16830463</v>
-      </c>
-      <c r="K28" s="67">
-        <f>IF(I28&lt;&gt;0,J28/I28,"NA")</f>
-        <v>4.1200966568159165</v>
-      </c>
-      <c r="M28" s="68">
-        <v>4084968</v>
-      </c>
-      <c r="N28" s="54">
-        <v>0</v>
-      </c>
-      <c r="O28" s="55"/>
-      <c r="P28" s="69">
-        <v>20915431</v>
-      </c>
-      <c r="Q28" s="57">
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="56"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="58"/>
+      <c r="Q28" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="70"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="67"/>
-      <c r="M29" s="68"/>
-      <c r="N29" s="59"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="72"/>
-      <c r="Q29" s="57"/>
+    <row r="29" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="59"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="56"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="46"/>
     </row>
-    <row r="30" spans="2:17" ht="14" x14ac:dyDescent="0.25">
-      <c r="B30" s="70" t="str">
+    <row r="30" spans="2:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="B30" s="59" t="str">
         <f>[1]FSs!D227</f>
         <v>▪ Other expenses</v>
       </c>
-      <c r="C30" s="35">
+      <c r="C30" s="24">
         <v>32</v>
       </c>
-      <c r="D30" s="63">
-        <v>46872777</v>
-      </c>
-      <c r="E30" s="63">
-        <v>0</v>
-      </c>
-      <c r="F30" s="64">
-        <v>46872777</v>
-      </c>
-      <c r="G30" s="65">
-        <v>71784000</v>
-      </c>
-      <c r="H30" s="64">
-        <v>0</v>
-      </c>
-      <c r="I30" s="64">
-        <v>71784000</v>
-      </c>
-      <c r="J30" s="66">
-        <f>F30-I30</f>
-        <v>-24911223</v>
-      </c>
-      <c r="K30" s="67">
-        <f>IF(I30&lt;&gt;0,J30/I30,"NA")</f>
-        <v>-0.34703029923102641</v>
-      </c>
-      <c r="M30" s="68">
-        <v>71784000</v>
-      </c>
-      <c r="N30" s="54">
-        <v>0</v>
-      </c>
-      <c r="O30" s="55"/>
-      <c r="P30" s="69">
-        <v>46872777</v>
-      </c>
-      <c r="Q30" s="57">
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="56"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="58"/>
+      <c r="Q30" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="70"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="64"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="67"/>
-      <c r="M31" s="68"/>
-      <c r="N31" s="59"/>
-      <c r="O31" s="60"/>
-      <c r="P31" s="72"/>
-      <c r="Q31" s="57"/>
+    <row r="31" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="59"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="56"/>
+      <c r="M31" s="57"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="61"/>
+      <c r="Q31" s="46"/>
     </row>
-    <row r="32" spans="2:17" ht="14" x14ac:dyDescent="0.25">
-      <c r="B32" s="46" t="str">
+    <row r="32" spans="2:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="B32" s="35" t="str">
         <f>[1]FSs!D229</f>
         <v>▪ Other loss</v>
       </c>
-      <c r="C32" s="47">
+      <c r="C32" s="36">
         <v>40</v>
       </c>
-      <c r="D32" s="73">
-        <v>-25957346</v>
-      </c>
-      <c r="E32" s="73">
-        <v>0</v>
-      </c>
-      <c r="F32" s="73">
-        <v>-25957346</v>
-      </c>
-      <c r="G32" s="99">
-        <v>-67699032</v>
-      </c>
-      <c r="H32" s="73">
-        <v>0</v>
-      </c>
-      <c r="I32" s="73">
-        <v>-67699032</v>
-      </c>
-      <c r="J32" s="73">
-        <f t="shared" ref="D32:J32" si="2">J28-J30</f>
-        <v>41741686</v>
-      </c>
-      <c r="K32" s="52">
-        <f>IF(I32&lt;&gt;0,J32/I32,"NA")</f>
-        <v>-0.6165772946354684</v>
-      </c>
-      <c r="M32" s="100">
-        <v>-67699032</v>
-      </c>
-      <c r="N32" s="54">
-        <v>0</v>
-      </c>
-      <c r="O32" s="55"/>
-      <c r="P32" s="77">
-        <v>-25957346</v>
-      </c>
-      <c r="Q32" s="57">
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="41"/>
+      <c r="M32" s="89"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="66"/>
+      <c r="Q32" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="46"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="74"/>
-      <c r="I33" s="74"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="52"/>
-      <c r="M33" s="76"/>
-      <c r="N33" s="59"/>
-      <c r="O33" s="60"/>
-      <c r="P33" s="77"/>
-      <c r="Q33" s="57"/>
+    <row r="33" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="35"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="41"/>
+      <c r="M33" s="65"/>
+      <c r="N33" s="48"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="66"/>
+      <c r="Q33" s="46"/>
     </row>
-    <row r="34" spans="2:17" ht="14" x14ac:dyDescent="0.25">
-      <c r="B34" s="46" t="str">
+    <row r="34" spans="2:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="B34" s="35" t="str">
         <f>[1]FSs!D231</f>
         <v>▪ Net (loss)/profit before tax</v>
       </c>
-      <c r="C34" s="47">
+      <c r="C34" s="36">
         <v>50</v>
       </c>
-      <c r="D34" s="73">
-        <v>-921370336</v>
-      </c>
-      <c r="E34" s="73">
-        <v>0</v>
-      </c>
-      <c r="F34" s="74">
-        <v>-921370336</v>
-      </c>
-      <c r="G34" s="75">
-        <v>114200846</v>
-      </c>
-      <c r="H34" s="74">
-        <v>0</v>
-      </c>
-      <c r="I34" s="74">
-        <v>114200846</v>
-      </c>
-      <c r="J34" s="51">
-        <f>F34-I34</f>
-        <v>-1035571182</v>
-      </c>
-      <c r="K34" s="52">
-        <f>IF(I34&lt;&gt;0,J34/I34,"NA")</f>
-        <v>-9.0679817030427259</v>
-      </c>
-      <c r="M34" s="76">
-        <v>114200846</v>
-      </c>
-      <c r="N34" s="54">
-        <v>0</v>
-      </c>
-      <c r="O34" s="55"/>
-      <c r="P34" s="77">
-        <v>-921370336</v>
-      </c>
-      <c r="Q34" s="57">
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="41"/>
+      <c r="M34" s="65"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="44"/>
+      <c r="P34" s="66"/>
+      <c r="Q34" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="46"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="73"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="75"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="74"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="52"/>
-      <c r="M35" s="76"/>
-      <c r="N35" s="59"/>
-      <c r="O35" s="60"/>
-      <c r="P35" s="77"/>
-      <c r="Q35" s="57"/>
+    <row r="35" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="35"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="41"/>
+      <c r="M35" s="65"/>
+      <c r="N35" s="48"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="66"/>
+      <c r="Q35" s="46"/>
     </row>
-    <row r="36" spans="2:17" ht="14" x14ac:dyDescent="0.25">
-      <c r="B36" s="70" t="str">
+    <row r="36" spans="2:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="B36" s="59" t="str">
         <f>[1]FSs!D233</f>
         <v>▪ Current CIT expenses</v>
       </c>
-      <c r="C36" s="47">
+      <c r="C36" s="36">
         <v>51</v>
       </c>
-      <c r="D36" s="63">
-        <v>0</v>
-      </c>
-      <c r="E36" s="63">
-        <v>0</v>
-      </c>
-      <c r="F36" s="64">
-        <v>0</v>
-      </c>
-      <c r="G36" s="65">
-        <v>0</v>
-      </c>
-      <c r="H36" s="64">
-        <v>0</v>
-      </c>
-      <c r="I36" s="64">
-        <v>0</v>
-      </c>
-      <c r="J36" s="66">
-        <f>F36-I36</f>
-        <v>0</v>
-      </c>
-      <c r="K36" s="67" t="str">
-        <f>IF(I36&lt;&gt;0,J36/I36,"NA")</f>
-        <v>NA</v>
-      </c>
-      <c r="M36" s="68">
-        <v>0</v>
-      </c>
-      <c r="N36" s="54">
-        <v>0</v>
-      </c>
-      <c r="O36" s="55"/>
-      <c r="P36" s="69">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="57">
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="56"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="44"/>
+      <c r="P36" s="58"/>
+      <c r="Q36" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="46"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="63"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="64"/>
-      <c r="I37" s="64"/>
-      <c r="J37" s="66"/>
-      <c r="K37" s="67"/>
-      <c r="M37" s="68"/>
-      <c r="N37" s="59"/>
-      <c r="O37" s="60"/>
-      <c r="P37" s="72"/>
-      <c r="Q37" s="57"/>
+    <row r="37" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="35"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="56"/>
+      <c r="M37" s="57"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="61"/>
+      <c r="Q37" s="46"/>
     </row>
-    <row r="38" spans="2:17" ht="24" x14ac:dyDescent="0.25">
-      <c r="B38" s="70" t="str">
+    <row r="38" spans="2:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B38" s="59" t="str">
         <f>[1]FSs!D235</f>
         <v>▪ Deferred CIT (incomes)/expenses</v>
       </c>
-      <c r="C38" s="101">
+      <c r="C38" s="90">
         <v>52</v>
       </c>
-      <c r="D38" s="63">
-        <v>0</v>
-      </c>
-      <c r="E38" s="63">
-        <v>0</v>
-      </c>
-      <c r="F38" s="64">
-        <v>0</v>
-      </c>
-      <c r="G38" s="65"/>
-      <c r="H38" s="64">
-        <v>0</v>
-      </c>
-      <c r="I38" s="64">
-        <v>0</v>
-      </c>
-      <c r="J38" s="66">
-        <f>F38-I38</f>
-        <v>0</v>
-      </c>
-      <c r="K38" s="67" t="str">
-        <f>IF(I38&lt;&gt;0,J38/I38,"NA")</f>
-        <v>NA</v>
-      </c>
-      <c r="M38" s="68">
-        <v>0</v>
-      </c>
-      <c r="N38" s="54">
-        <v>0</v>
-      </c>
-      <c r="O38" s="55"/>
-      <c r="P38" s="69">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="57">
+      <c r="D38" s="52"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="55"/>
+      <c r="K38" s="56"/>
+      <c r="M38" s="57"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="44"/>
+      <c r="P38" s="58"/>
+      <c r="Q38" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="102"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="63"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="71"/>
-      <c r="H39" s="64"/>
-      <c r="I39" s="64"/>
-      <c r="J39" s="66"/>
-      <c r="K39" s="67"/>
-      <c r="M39" s="68"/>
-      <c r="N39" s="59"/>
-      <c r="O39" s="60"/>
-      <c r="P39" s="103"/>
-      <c r="Q39" s="57"/>
+    <row r="39" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="91"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="55"/>
+      <c r="K39" s="56"/>
+      <c r="M39" s="57"/>
+      <c r="N39" s="48"/>
+      <c r="O39" s="49"/>
+      <c r="P39" s="92"/>
+      <c r="Q39" s="46"/>
     </row>
-    <row r="40" spans="2:17" ht="14" x14ac:dyDescent="0.25">
-      <c r="B40" s="46" t="str">
+    <row r="40" spans="2:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="B40" s="35" t="str">
         <f>[1]FSs!D237</f>
         <v>▪ Net (loss)/profit after tax</v>
       </c>
-      <c r="C40" s="47">
+      <c r="C40" s="36">
         <v>60</v>
       </c>
-      <c r="D40" s="95">
-        <v>-921370336</v>
-      </c>
-      <c r="E40" s="95">
-        <v>0</v>
-      </c>
-      <c r="F40" s="95">
-        <v>-921370336</v>
-      </c>
-      <c r="G40" s="96">
-        <v>114200846</v>
-      </c>
-      <c r="H40" s="95">
-        <v>0</v>
-      </c>
-      <c r="I40" s="95">
-        <v>114200846</v>
-      </c>
-      <c r="J40" s="98">
-        <f>F40-I40</f>
-        <v>-1035571182</v>
-      </c>
-      <c r="K40" s="52">
-        <f>IF(I40&lt;&gt;0,J40/I40,"NA")</f>
-        <v>-9.0679817030427259</v>
-      </c>
-      <c r="M40" s="96">
-        <f>M34-M36-M38</f>
-        <v>114200846</v>
-      </c>
-      <c r="N40" s="54">
-        <f>I40-M40</f>
-        <v>0</v>
-      </c>
-      <c r="O40" s="55"/>
-      <c r="P40" s="104">
-        <f>P34-P36-P38</f>
-        <v>-921370336</v>
-      </c>
-      <c r="Q40" s="57">
+      <c r="D40" s="84"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="84"/>
+      <c r="G40" s="85"/>
+      <c r="H40" s="84"/>
+      <c r="I40" s="84"/>
+      <c r="J40" s="87"/>
+      <c r="K40" s="41"/>
+      <c r="M40" s="85"/>
+      <c r="N40" s="43"/>
+      <c r="O40" s="44"/>
+      <c r="P40" s="93"/>
+      <c r="Q40" s="46">
         <f>D40-P40</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="46"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="95"/>
-      <c r="E41" s="95"/>
-      <c r="F41" s="74"/>
-      <c r="G41" s="75"/>
-      <c r="H41" s="105"/>
-      <c r="I41" s="74"/>
-      <c r="J41" s="98"/>
-      <c r="K41" s="52"/>
-      <c r="M41" s="76"/>
-      <c r="N41" s="54"/>
-      <c r="O41" s="55"/>
-      <c r="P41" s="77"/>
-      <c r="Q41" s="57"/>
+    <row r="41" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="35"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="84"/>
+      <c r="E41" s="84"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="64"/>
+      <c r="H41" s="94"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="87"/>
+      <c r="K41" s="41"/>
+      <c r="M41" s="65"/>
+      <c r="N41" s="43"/>
+      <c r="O41" s="44"/>
+      <c r="P41" s="66"/>
+      <c r="Q41" s="46"/>
     </row>
-    <row r="42" spans="2:17" ht="36" x14ac:dyDescent="0.25">
-      <c r="B42" s="46" t="str">
+    <row r="42" spans="2:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B42" s="35" t="str">
         <f>[1]FSs!D239</f>
         <v>▪ Net profit/(loss) of shareholders 
    of the parent company</v>
       </c>
-      <c r="C42" s="47">
+      <c r="C42" s="36">
         <v>61</v>
       </c>
-      <c r="D42" s="106"/>
-      <c r="E42" s="107"/>
-      <c r="F42" s="108">
-        <v>0</v>
-      </c>
-      <c r="G42" s="109"/>
-      <c r="H42" s="108"/>
-      <c r="I42" s="108">
-        <v>0</v>
-      </c>
-      <c r="J42" s="110">
-        <f>F42-I42</f>
-        <v>0</v>
-      </c>
-      <c r="K42" s="111" t="str">
-        <f>IF(I42&lt;&gt;0,J42/I42,"NA")</f>
-        <v>NA</v>
-      </c>
-      <c r="M42" s="112"/>
-      <c r="N42" s="54">
-        <f>I42-M42</f>
-        <v>0</v>
-      </c>
-      <c r="O42" s="55"/>
-      <c r="P42" s="113"/>
-      <c r="Q42" s="57">
+      <c r="D42" s="95"/>
+      <c r="E42" s="96"/>
+      <c r="F42" s="97"/>
+      <c r="G42" s="98"/>
+      <c r="H42" s="97"/>
+      <c r="I42" s="97"/>
+      <c r="J42" s="99"/>
+      <c r="K42" s="100"/>
+      <c r="M42" s="101"/>
+      <c r="N42" s="43"/>
+      <c r="O42" s="44"/>
+      <c r="P42" s="102"/>
+      <c r="Q42" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="46"/>
-      <c r="C43" s="47"/>
-      <c r="D43" s="95"/>
-      <c r="E43" s="95"/>
-      <c r="F43" s="74"/>
-      <c r="G43" s="75"/>
-      <c r="H43" s="74"/>
-      <c r="I43" s="74"/>
-      <c r="J43" s="98"/>
-      <c r="K43" s="52"/>
-      <c r="M43" s="76"/>
-      <c r="N43" s="54"/>
-      <c r="O43" s="55"/>
-      <c r="P43" s="77"/>
-      <c r="Q43" s="57"/>
+    <row r="43" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="35"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="84"/>
+      <c r="E43" s="84"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="64"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="87"/>
+      <c r="K43" s="41"/>
+      <c r="M43" s="65"/>
+      <c r="N43" s="43"/>
+      <c r="O43" s="44"/>
+      <c r="P43" s="66"/>
+      <c r="Q43" s="46"/>
     </row>
-    <row r="44" spans="2:17" ht="36" x14ac:dyDescent="0.25">
-      <c r="B44" s="46" t="str">
+    <row r="44" spans="2:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B44" s="35" t="str">
         <f>[1]FSs!D241</f>
         <v>▪ Net profit/(loss) of non-controlling
    interests</v>
       </c>
-      <c r="C44" s="47">
+      <c r="C44" s="36">
         <v>62</v>
       </c>
-      <c r="D44" s="106"/>
-      <c r="E44" s="107"/>
-      <c r="F44" s="108">
-        <v>0</v>
-      </c>
-      <c r="G44" s="109"/>
-      <c r="H44" s="108"/>
-      <c r="I44" s="108">
-        <v>0</v>
-      </c>
-      <c r="J44" s="110">
-        <f>F44-I44</f>
-        <v>0</v>
-      </c>
-      <c r="K44" s="111" t="str">
-        <f>IF(I44&lt;&gt;0,J44/I44,"NA")</f>
-        <v>NA</v>
-      </c>
-      <c r="M44" s="112"/>
-      <c r="N44" s="54">
-        <f>I44-M44</f>
-        <v>0</v>
-      </c>
-      <c r="O44" s="55"/>
-      <c r="P44" s="113"/>
-      <c r="Q44" s="57">
+      <c r="D44" s="95"/>
+      <c r="E44" s="96"/>
+      <c r="F44" s="97"/>
+      <c r="G44" s="98"/>
+      <c r="H44" s="97"/>
+      <c r="I44" s="97"/>
+      <c r="J44" s="99"/>
+      <c r="K44" s="100"/>
+      <c r="M44" s="101"/>
+      <c r="N44" s="43"/>
+      <c r="O44" s="44"/>
+      <c r="P44" s="102"/>
+      <c r="Q44" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="46"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="95"/>
-      <c r="E45" s="95"/>
-      <c r="F45" s="74"/>
-      <c r="G45" s="75"/>
-      <c r="H45" s="74"/>
-      <c r="I45" s="74"/>
-      <c r="J45" s="98"/>
-      <c r="K45" s="52"/>
-      <c r="M45" s="76"/>
-      <c r="N45" s="54"/>
-      <c r="O45" s="55"/>
-      <c r="P45" s="77"/>
-      <c r="Q45" s="57"/>
+    <row r="45" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="35"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="84"/>
+      <c r="E45" s="84"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="63"/>
+      <c r="I45" s="63"/>
+      <c r="J45" s="87"/>
+      <c r="K45" s="41"/>
+      <c r="M45" s="65"/>
+      <c r="N45" s="43"/>
+      <c r="O45" s="44"/>
+      <c r="P45" s="66"/>
+      <c r="Q45" s="46"/>
     </row>
-    <row r="46" spans="2:17" ht="14" x14ac:dyDescent="0.25">
-      <c r="B46" s="46" t="str">
+    <row r="46" spans="2:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="B46" s="35" t="str">
         <f>[1]FSs!D243</f>
         <v>▪ Basic earnings per share</v>
       </c>
-      <c r="C46" s="47">
+      <c r="C46" s="36">
         <v>70</v>
       </c>
-      <c r="D46" s="106"/>
-      <c r="E46" s="107"/>
-      <c r="F46" s="108">
-        <v>0</v>
-      </c>
-      <c r="G46" s="109"/>
-      <c r="H46" s="108"/>
-      <c r="I46" s="108">
-        <v>0</v>
-      </c>
-      <c r="J46" s="110">
-        <f>F46-I46</f>
-        <v>0</v>
-      </c>
-      <c r="K46" s="111" t="str">
-        <f>IF(I46&lt;&gt;0,J46/I46,"NA")</f>
-        <v>NA</v>
-      </c>
-      <c r="M46" s="112"/>
-      <c r="N46" s="54">
-        <f>I46-M46</f>
-        <v>0</v>
-      </c>
-      <c r="O46" s="55"/>
-      <c r="P46" s="113"/>
-      <c r="Q46" s="57">
+      <c r="D46" s="95"/>
+      <c r="E46" s="96"/>
+      <c r="F46" s="97"/>
+      <c r="G46" s="98"/>
+      <c r="H46" s="97"/>
+      <c r="I46" s="97"/>
+      <c r="J46" s="99"/>
+      <c r="K46" s="100"/>
+      <c r="M46" s="101"/>
+      <c r="N46" s="43"/>
+      <c r="O46" s="44"/>
+      <c r="P46" s="102"/>
+      <c r="Q46" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="46"/>
-      <c r="C47" s="47"/>
-      <c r="D47" s="95"/>
-      <c r="E47" s="95"/>
-      <c r="F47" s="74"/>
-      <c r="G47" s="75"/>
-      <c r="H47" s="74"/>
-      <c r="I47" s="74"/>
-      <c r="J47" s="98"/>
-      <c r="K47" s="52"/>
-      <c r="M47" s="76"/>
-      <c r="N47" s="54"/>
-      <c r="O47" s="55"/>
-      <c r="P47" s="77"/>
-      <c r="Q47" s="57"/>
+    <row r="47" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="35"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="84"/>
+      <c r="E47" s="84"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="64"/>
+      <c r="H47" s="63"/>
+      <c r="I47" s="63"/>
+      <c r="J47" s="87"/>
+      <c r="K47" s="41"/>
+      <c r="M47" s="65"/>
+      <c r="N47" s="43"/>
+      <c r="O47" s="44"/>
+      <c r="P47" s="66"/>
+      <c r="Q47" s="46"/>
     </row>
-    <row r="48" spans="2:17" ht="14" x14ac:dyDescent="0.25">
-      <c r="B48" s="46" t="str">
+    <row r="48" spans="2:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="B48" s="35" t="str">
         <f>[1]FSs!D245</f>
         <v>▪ Diluted earnings per share</v>
       </c>
-      <c r="C48" s="47">
+      <c r="C48" s="36">
         <v>71</v>
       </c>
-      <c r="D48" s="106"/>
-      <c r="E48" s="107"/>
-      <c r="F48" s="108">
-        <v>0</v>
-      </c>
-      <c r="G48" s="109"/>
-      <c r="H48" s="108"/>
-      <c r="I48" s="108">
-        <v>0</v>
-      </c>
-      <c r="J48" s="110">
-        <f>F48-I48</f>
-        <v>0</v>
-      </c>
-      <c r="K48" s="111" t="str">
-        <f>IF(I48&lt;&gt;0,J48/I48,"NA")</f>
-        <v>NA</v>
-      </c>
-      <c r="M48" s="112"/>
-      <c r="N48" s="54">
-        <f>I48-M48</f>
-        <v>0</v>
-      </c>
-      <c r="O48" s="55"/>
-      <c r="P48" s="113"/>
-      <c r="Q48" s="57">
+      <c r="D48" s="95"/>
+      <c r="E48" s="96"/>
+      <c r="F48" s="97"/>
+      <c r="G48" s="98"/>
+      <c r="H48" s="97"/>
+      <c r="I48" s="97"/>
+      <c r="J48" s="99"/>
+      <c r="K48" s="100"/>
+      <c r="M48" s="101"/>
+      <c r="N48" s="43"/>
+      <c r="O48" s="44"/>
+      <c r="P48" s="102"/>
+      <c r="Q48" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:17" ht="14" x14ac:dyDescent="0.3">
-      <c r="B49" s="114"/>
-      <c r="C49" s="115"/>
-      <c r="D49" s="116"/>
-      <c r="E49" s="116"/>
-      <c r="F49" s="117"/>
-      <c r="G49" s="118"/>
-      <c r="H49" s="117"/>
-      <c r="I49" s="117"/>
-      <c r="J49" s="119"/>
-      <c r="K49" s="120"/>
-      <c r="M49" s="121"/>
-      <c r="N49" s="122"/>
-      <c r="O49" s="43"/>
-      <c r="P49" s="123"/>
-      <c r="Q49" s="124"/>
+    <row r="49" spans="2:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="B49" s="103"/>
+      <c r="C49" s="104"/>
+      <c r="D49" s="105"/>
+      <c r="E49" s="105"/>
+      <c r="F49" s="106"/>
+      <c r="G49" s="107"/>
+      <c r="H49" s="106"/>
+      <c r="I49" s="106"/>
+      <c r="J49" s="108"/>
+      <c r="K49" s="109"/>
+      <c r="M49" s="110"/>
+      <c r="N49" s="111"/>
+      <c r="O49" s="32"/>
+      <c r="P49" s="112"/>
+      <c r="Q49" s="113"/>
     </row>
-    <row r="50" spans="2:17" ht="14" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:17" ht="15" x14ac:dyDescent="0.25">
       <c r="P50" s="19"/>
       <c r="Q50" s="19"/>
     </row>
-    <row r="51" spans="2:17" ht="14" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:17" ht="15" x14ac:dyDescent="0.25">
       <c r="F51" s="9">
         <v>0</v>
       </c>
@@ -53012,6 +52541,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
@@ -53019,12 +52554,6 @@
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Notes:" prompt="Input figures from PY's audited FSs" sqref="G2" xr:uid="{0B125012-16D8-4504-A5BA-6B0E70C6E1D5}"/>
